--- a/Employee_Reports35/Mohammed Fahim Mohammed Laffir Q0576.xlsx
+++ b/Employee_Reports35/Mohammed Fahim Mohammed Laffir Q0576.xlsx
@@ -581,11 +581,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -630,11 +630,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -679,11 +679,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -728,11 +728,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -777,11 +777,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -826,11 +826,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -875,11 +875,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -924,11 +924,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -973,11 +973,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1022,11 +1022,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1071,11 +1071,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1120,11 +1120,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1169,11 +1169,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1218,11 +1218,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1267,11 +1267,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1316,11 +1316,11 @@
         </is>
       </c>
       <c r="H18" s="3" t="n">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -1365,11 +1365,11 @@
         </is>
       </c>
       <c r="H19" s="3" t="n">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
@@ -1414,11 +1414,11 @@
         </is>
       </c>
       <c r="H20" s="3" t="n">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J20" s="3" t="inlineStr">
@@ -1463,11 +1463,11 @@
         </is>
       </c>
       <c r="H21" s="3" t="n">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="I21" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J21" s="3" t="inlineStr">
@@ -1512,11 +1512,11 @@
         </is>
       </c>
       <c r="H22" s="3" t="n">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I22" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J22" s="3" t="inlineStr">
@@ -1561,11 +1561,11 @@
         </is>
       </c>
       <c r="H23" s="4" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I23" s="4" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J23" s="4" t="inlineStr">
@@ -1610,11 +1610,11 @@
         </is>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-173</v>
+        <v>-174</v>
       </c>
       <c r="I24" s="5" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J24" s="5" t="inlineStr">
@@ -1659,11 +1659,11 @@
         </is>
       </c>
       <c r="H25" s="3" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I25" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J25" s="3" t="inlineStr">
@@ -1708,11 +1708,11 @@
         </is>
       </c>
       <c r="H26" s="3" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I26" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J26" s="3" t="inlineStr">
@@ -1745,11 +1745,11 @@
         </is>
       </c>
       <c r="H27" s="3" t="n">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I27" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J27" s="3" t="inlineStr">
@@ -1794,11 +1794,11 @@
         </is>
       </c>
       <c r="H28" s="3" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I28" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J28" s="3" t="inlineStr">
@@ -1831,11 +1831,11 @@
         </is>
       </c>
       <c r="H29" s="3" t="n">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I29" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J29" s="3" t="inlineStr">

--- a/Employee_Reports35/Mohammed Fahim Mohammed Laffir Q0576.xlsx
+++ b/Employee_Reports35/Mohammed Fahim Mohammed Laffir Q0576.xlsx
@@ -581,11 +581,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -630,11 +630,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -679,11 +679,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -728,11 +728,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -777,11 +777,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -826,11 +826,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -875,11 +875,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -924,11 +924,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -973,11 +973,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1022,11 +1022,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1071,11 +1071,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1120,11 +1120,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1169,11 +1169,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1218,11 +1218,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1267,11 +1267,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1316,11 +1316,11 @@
         </is>
       </c>
       <c r="H18" s="3" t="n">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -1365,11 +1365,11 @@
         </is>
       </c>
       <c r="H19" s="3" t="n">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
@@ -1414,11 +1414,11 @@
         </is>
       </c>
       <c r="H20" s="3" t="n">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J20" s="3" t="inlineStr">
@@ -1463,11 +1463,11 @@
         </is>
       </c>
       <c r="H21" s="3" t="n">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="I21" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J21" s="3" t="inlineStr">
@@ -1512,11 +1512,11 @@
         </is>
       </c>
       <c r="H22" s="3" t="n">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I22" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J22" s="3" t="inlineStr">
@@ -1561,11 +1561,11 @@
         </is>
       </c>
       <c r="H23" s="4" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I23" s="4" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J23" s="4" t="inlineStr">
@@ -1610,11 +1610,11 @@
         </is>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-174</v>
+        <v>-175</v>
       </c>
       <c r="I24" s="5" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J24" s="5" t="inlineStr">
@@ -1659,11 +1659,11 @@
         </is>
       </c>
       <c r="H25" s="3" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I25" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J25" s="3" t="inlineStr">
@@ -1708,11 +1708,11 @@
         </is>
       </c>
       <c r="H26" s="3" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I26" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J26" s="3" t="inlineStr">
@@ -1745,11 +1745,11 @@
         </is>
       </c>
       <c r="H27" s="3" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I27" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J27" s="3" t="inlineStr">
@@ -1794,11 +1794,11 @@
         </is>
       </c>
       <c r="H28" s="3" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I28" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J28" s="3" t="inlineStr">
@@ -1831,11 +1831,11 @@
         </is>
       </c>
       <c r="H29" s="3" t="n">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="I29" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J29" s="3" t="inlineStr">
